--- a/AutomationExercise/src/main/resources/dataAutomation.xlsx
+++ b/AutomationExercise/src/main/resources/dataAutomation.xlsx
@@ -68,7 +68,7 @@
     <t>shivam singh</t>
   </si>
   <si>
-    <t>shiv1234@gmail.com</t>
+    <t>shiv151s26@gmail.com</t>
   </si>
   <si>
     <t>J@nnat123</t>
@@ -1260,7 +1260,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1350,7 +1350,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="shiv1234@gmail.com" tooltip="mailto:shiv1234@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="shiv151s26@gmail.com" tooltip="mailto:shiv151s26@gmail.com"/>
     <hyperlink ref="C2" r:id="rId2" display="J@nnat123"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
